--- a/Support/B - Country Survey Details/IND/EUS/utilities/IND_EUS_State_Code_Changes.xlsx
+++ b/Support/B - Country Survey Details/IND/EUS/utilities/IND_EUS_State_Code_Changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/mgronert_worldbank_org/Documents/Documents/Country Work/IND/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb529026\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{D0EE8A51-D58F-4328-A045-E5AFCC1426A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{86B15581-9339-4A91-A16F-532E3756AD59}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC799EF9-E4DE-4B1F-AB0C-C9D387D5AE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CBC9D4BE-ACCC-4B11-956D-F80F80CD8EAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBC9D4BE-ACCC-4B11-956D-F80F80CD8EAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,15 +564,15 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="30.77734375" style="3" customWidth="1"/>
+    <col min="1" max="4" width="30.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -586,7 +586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -600,7 +600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -614,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -628,7 +628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -642,7 +642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -656,7 +656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -670,7 +670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -684,7 +684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -726,7 +726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -740,7 +740,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -754,7 +754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -768,7 +768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -782,7 +782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -796,7 +796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -810,7 +810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -824,7 +824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -838,12 +838,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6">
         <v>20</v>
@@ -852,7 +852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -866,7 +866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -880,7 +880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -894,7 +894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -908,7 +908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -922,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -936,7 +936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -950,7 +950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -978,7 +978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -992,7 +992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
